--- a/Courswork 2/results.xlsx
+++ b/Courswork 2/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmbat\Desktop\Repos\CM1210\Courswork 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Documents\University\1st year\repos\CM1210\Courswork 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5E7BA6-CFC8-46BA-8CC5-DF833531DF0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099A63E-27DA-4AC6-B7CD-D3B0B6247066}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D9DFD31-DEB9-4928-B0AA-FF1330F3F051}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D9DFD31-DEB9-4928-B0AA-FF1330F3F051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,10 +228,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$21</c:f>
+              <c:f>Sheet1!$A$18:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -243,16 +243,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$21</c:f>
+              <c:f>Sheet1!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1444</c:v>
                 </c:pt>
@@ -264,6 +267,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,10 +319,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$21</c:f>
+              <c:f>Sheet1!$A$18:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -328,16 +334,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$21</c:f>
+              <c:f>Sheet1!$C$18:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1344</c:v>
                 </c:pt>
@@ -349,6 +358,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,10 +704,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$18:$I$21</c:f>
+              <c:f>Sheet1!$I$18:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -707,27 +719,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$18:$J$21</c:f>
+              <c:f>Sheet1!$J$18:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>2646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>199</c:v>
+                  <c:v>10412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>299</c:v>
+                  <c:v>23523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>399</c:v>
+                  <c:v>41521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,10 +795,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$18:$I$21</c:f>
+              <c:f>Sheet1!$I$18:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -792,27 +810,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$18:$K$21</c:f>
+              <c:f>Sheet1!$K$18:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>2554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292</c:v>
+                  <c:v>23231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>392</c:v>
+                  <c:v>41129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,10 +1180,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$30</c:f>
+              <c:f>Sheet1!$H$27:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1171,16 +1195,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$27:$I$30</c:f>
+              <c:f>Sheet1!$I$27:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1406075</c:v>
                 </c:pt>
@@ -1192,6 +1219,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1060892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2823451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,10 +1271,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$30</c:f>
+              <c:f>Sheet1!$H$27:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1256,16 +1286,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$27:$J$30</c:f>
+              <c:f>Sheet1!$J$27:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>438215</c:v>
                 </c:pt>
@@ -1277,6 +1310,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2565453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3387599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +1339,6 @@
         <c:axId val="642796064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3586,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73BEF45-7FF1-44D4-BD53-88646AAE7F85}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3814,10 +3849,10 @@
         <v>100</v>
       </c>
       <c r="J18">
-        <v>99</v>
+        <v>2646</v>
       </c>
       <c r="K18">
-        <v>92</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3837,10 +3872,10 @@
         <v>200</v>
       </c>
       <c r="J19">
-        <v>199</v>
+        <v>10412</v>
       </c>
       <c r="K19">
-        <v>192</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3860,10 +3895,10 @@
         <v>300</v>
       </c>
       <c r="J20">
-        <v>299</v>
+        <v>23523</v>
       </c>
       <c r="K20">
-        <v>292</v>
+        <v>23231</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3883,10 +3918,33 @@
         <v>400</v>
       </c>
       <c r="J21">
-        <v>399</v>
+        <v>41521</v>
       </c>
       <c r="K21">
-        <v>392</v>
+        <v>41129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>468</v>
+      </c>
+      <c r="B22">
+        <v>8804</v>
+      </c>
+      <c r="C22">
+        <v>8336</v>
+      </c>
+      <c r="D22">
+        <v>2823451</v>
+      </c>
+      <c r="I22">
+        <v>468</v>
+      </c>
+      <c r="J22">
+        <v>58785</v>
+      </c>
+      <c r="K22">
+        <v>58325</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3939,6 +3997,17 @@
       </c>
       <c r="J30">
         <v>2565453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>468</v>
+      </c>
+      <c r="I31">
+        <v>2823451</v>
+      </c>
+      <c r="J31">
+        <v>3387599</v>
       </c>
     </row>
   </sheetData>

--- a/Courswork 2/results.xlsx
+++ b/Courswork 2/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Documents\University\1st year\repos\CM1210\Courswork 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmbat\Desktop\Repos\CM1210\Courswork 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099A63E-27DA-4AC6-B7CD-D3B0B6247066}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750E1240-4C95-4251-A5FC-2F1C26F24E94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D9DFD31-DEB9-4928-B0AA-FF1330F3F051}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D9DFD31-DEB9-4928-B0AA-FF1330F3F051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,24 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Insertion</t>
-  </si>
-  <si>
-    <t>comparison</t>
-  </si>
-  <si>
-    <t>moves</t>
-  </si>
-  <si>
-    <t>merge</t>
-  </si>
-  <si>
-    <t>insertion</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>Merge</t>
@@ -60,7 +45,28 @@
     <t>Moves</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>INSERTION</t>
+  </si>
+  <si>
+    <t>MERGE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>300m</t>
+  </si>
+  <si>
+    <t>400i</t>
+  </si>
+  <si>
+    <t>400m</t>
+  </si>
+  <si>
+    <t>468i</t>
+  </si>
+  <si>
+    <t>468m</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Merge sort</a:t>
+              <a:t>Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -195,18 +201,20 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$17</c:f>
+              <c:f>Sheet1!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Comparison</c:v>
+                  <c:v>Merge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -228,7 +236,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$22</c:f>
+              <c:f>Sheet1!$Q$5:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -252,24 +260,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$22</c:f>
+              <c:f>Sheet1!$R$5:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1444</c:v>
+                  <c:v>1112783</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3288</c:v>
+                  <c:v>1434868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5276</c:v>
+                  <c:v>1606658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7376</c:v>
+                  <c:v>941956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8804</c:v>
+                  <c:v>1057043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,7 +285,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B358-4A0D-854E-BC1792C3DCE5}"/>
+              <c16:uniqueId val="{00000000-C701-4255-B36B-D540A3443AB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -286,18 +294,20 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$17</c:f>
+              <c:f>Sheet1!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Moves</c:v>
+                  <c:v>Insertion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -319,7 +329,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$22</c:f>
+              <c:f>Sheet1!$Q$5:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -343,24 +353,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$22</c:f>
+              <c:f>Sheet1!$S$5:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1344</c:v>
+                  <c:v>309815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3088</c:v>
+                  <c:v>787249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4976</c:v>
+                  <c:v>1431500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6976</c:v>
+                  <c:v>2638599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8336</c:v>
+                  <c:v>1080543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,7 +378,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B358-4A0D-854E-BC1792C3DCE5}"/>
+              <c16:uniqueId val="{00000001-C701-4255-B36B-D540A3443AB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -380,11 +390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="639109984"/>
-        <c:axId val="639112608"/>
+        <c:axId val="497054152"/>
+        <c:axId val="497046608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="639109984"/>
+        <c:axId val="497054152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,6 +414,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> words in the sort</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -441,13 +511,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639112608"/>
+        <c:crossAx val="497046608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="639112608"/>
+        <c:axId val="497046608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,6 +536,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time taken</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in nanoseconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -504,7 +633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639109984"/>
+        <c:crossAx val="497054152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -626,7 +755,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Insertion sort</a:t>
+              <a:t>Merge sort</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -671,7 +800,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$17</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -682,7 +811,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -704,7 +835,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$18:$I$22</c:f>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -728,24 +859,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$18:$J$22</c:f>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2646</c:v>
+                  <c:v>1444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10412</c:v>
+                  <c:v>3288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23523</c:v>
+                  <c:v>5276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41521</c:v>
+                  <c:v>7376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58785</c:v>
+                  <c:v>8804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,7 +884,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4AB4-4BB7-8028-F71C5BD11DBB}"/>
+              <c16:uniqueId val="{00000000-7A85-4B79-92AB-7CF935D8C04A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -762,7 +893,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$17</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -773,7 +904,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -795,7 +928,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$18:$I$22</c:f>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -819,24 +952,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$18:$K$22</c:f>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2554</c:v>
+                  <c:v>1344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10220</c:v>
+                  <c:v>3088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23231</c:v>
+                  <c:v>4976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41129</c:v>
+                  <c:v>6976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58325</c:v>
+                  <c:v>8336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +977,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4AB4-4BB7-8028-F71C5BD11DBB}"/>
+              <c16:uniqueId val="{00000001-7A85-4B79-92AB-7CF935D8C04A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -856,11 +989,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="640400936"/>
-        <c:axId val="640404872"/>
+        <c:axId val="369764304"/>
+        <c:axId val="369765616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="640400936"/>
+        <c:axId val="369764304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,6 +1013,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of words in the sort</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -917,13 +1105,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640404872"/>
+        <c:crossAx val="369765616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="640404872"/>
+        <c:axId val="369765616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,6 +1130,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of moves/comparions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -980,7 +1227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640400936"/>
+        <c:crossAx val="369764304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1102,7 +1349,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Time</a:t>
+              <a:t>Insertion sort</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1147,18 +1394,20 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$26</c:f>
+              <c:f>Sheet1!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Merge</c:v>
+                  <c:v>Comparison</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1180,7 +1429,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$31</c:f>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1204,24 +1453,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$27:$I$31</c:f>
+              <c:f>Sheet1!$J$4:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1406075</c:v>
+                  <c:v>2646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2559358</c:v>
+                  <c:v>10412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1123769</c:v>
+                  <c:v>23523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1060892</c:v>
+                  <c:v>41521</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2823451</c:v>
+                  <c:v>58785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,7 +1478,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36E3-430F-9094-9F33B4317728}"/>
+              <c16:uniqueId val="{00000000-6E32-43B4-B043-CC3FB37F1B44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,18 +1487,20 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$26</c:f>
+              <c:f>Sheet1!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion</c:v>
+                  <c:v>Moves</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1271,7 +1522,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$31</c:f>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1295,24 +1546,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$27:$J$31</c:f>
+              <c:f>Sheet1!$K$4:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>438215</c:v>
+                  <c:v>2554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>396511</c:v>
+                  <c:v>10220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1007639</c:v>
+                  <c:v>23231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2565453</c:v>
+                  <c:v>41129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3387599</c:v>
+                  <c:v>58325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1571,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-36E3-430F-9094-9F33B4317728}"/>
+              <c16:uniqueId val="{00000001-6E32-43B4-B043-CC3FB37F1B44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1332,11 +1583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="642796064"/>
-        <c:axId val="642793440"/>
+        <c:axId val="498784992"/>
+        <c:axId val="491764632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="642796064"/>
+        <c:axId val="498784992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,6 +1607,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of words in the sort</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1393,13 +1699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642793440"/>
+        <c:crossAx val="491764632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642793440"/>
+        <c:axId val="491764632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,6 +1724,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of moves/comparions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1456,7 +1821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642796064"/>
+        <c:crossAx val="498784992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3215,23 +3580,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C647BB14-84B2-453E-91E5-0EE5564248E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52FC986-D4CF-4BAD-BACB-4BE5CDBC3D0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,23 +3616,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCB3831-F512-465C-89E1-C0A5356A8B03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CB6C5B-03B5-4C9A-AFBD-0055E248BE2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,23 +3652,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C2256D-EB1D-4782-9340-0CBC80CEC8EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668CE576-0F51-4CD9-B0A9-8672CAFA1B25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,10 +3986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73BEF45-7FF1-44D4-BD53-88646AAE7F85}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,45 +3997,30 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -3678,22 +4028,19 @@
         <v>1444</v>
       </c>
       <c r="C3">
-        <v>99</v>
-      </c>
-      <c r="E3">
         <v>1344</v>
       </c>
-      <c r="F3">
-        <v>92</v>
-      </c>
-      <c r="H3">
-        <v>1406075</v>
-      </c>
-      <c r="I3">
-        <v>438215</v>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -3701,22 +4048,25 @@
         <v>3288</v>
       </c>
       <c r="C4">
-        <v>199</v>
-      </c>
-      <c r="E4">
         <v>3088</v>
       </c>
-      <c r="F4">
-        <v>192</v>
-      </c>
-      <c r="H4">
-        <v>2559358</v>
-      </c>
       <c r="I4">
-        <v>396511</v>
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>2646</v>
+      </c>
+      <c r="K4">
+        <v>2554</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
@@ -3724,22 +4074,28 @@
         <v>5276</v>
       </c>
       <c r="C5">
-        <v>299</v>
-      </c>
-      <c r="E5">
         <v>4976</v>
       </c>
-      <c r="F5">
-        <v>292</v>
-      </c>
-      <c r="H5">
-        <v>1123769</v>
-      </c>
       <c r="I5">
-        <v>1007639</v>
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <v>10412</v>
+      </c>
+      <c r="K5">
+        <v>10220</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>1112783</v>
+      </c>
+      <c r="S5">
+        <v>309815</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
@@ -3747,267 +4103,315 @@
         <v>7376</v>
       </c>
       <c r="C6">
-        <v>399</v>
-      </c>
-      <c r="E6">
         <v>6976</v>
       </c>
-      <c r="F6">
-        <v>392</v>
-      </c>
-      <c r="H6">
-        <v>1060892</v>
-      </c>
       <c r="I6">
-        <v>2565453</v>
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>23523</v>
+      </c>
+      <c r="K6">
+        <v>23231</v>
+      </c>
+      <c r="Q6">
+        <v>200</v>
+      </c>
+      <c r="R6">
+        <v>1434868</v>
+      </c>
+      <c r="S6">
+        <v>787249</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>468</v>
+      </c>
+      <c r="B7">
+        <v>8804</v>
+      </c>
+      <c r="C7">
+        <v>8336</v>
+      </c>
+      <c r="I7">
+        <v>400</v>
+      </c>
+      <c r="J7">
+        <v>41521</v>
+      </c>
+      <c r="K7">
+        <v>41129</v>
+      </c>
+      <c r="Q7">
+        <v>300</v>
+      </c>
+      <c r="R7">
+        <v>1606658</v>
+      </c>
+      <c r="S7">
+        <v>1431500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>468</v>
+      </c>
+      <c r="J8">
+        <v>58785</v>
+      </c>
+      <c r="K8">
+        <v>58325</v>
+      </c>
+      <c r="Q8">
+        <v>400</v>
+      </c>
+      <c r="R8">
+        <v>941956</v>
+      </c>
+      <c r="S8">
+        <v>2638599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>468</v>
+      </c>
+      <c r="R9">
+        <v>1057043</v>
+      </c>
+      <c r="S9">
+        <v>1080543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J13">
-        <v>99</v>
-      </c>
-      <c r="K13">
-        <v>199</v>
-      </c>
-      <c r="L13">
-        <v>299</v>
-      </c>
-      <c r="M13">
-        <v>399</v>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>288722</v>
+      </c>
+      <c r="C34">
+        <v>366677</v>
+      </c>
+      <c r="E34">
+        <v>293855</v>
+      </c>
+      <c r="G34">
+        <v>290005</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(A34:G34)</f>
+        <v>309814.75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J14">
-        <v>92</v>
-      </c>
-      <c r="K14">
-        <v>192</v>
-      </c>
-      <c r="L14">
-        <v>292</v>
-      </c>
-      <c r="M14">
-        <v>392</v>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>989354</v>
+      </c>
+      <c r="C35">
+        <v>1042287</v>
+      </c>
+      <c r="E35">
+        <v>1093935</v>
+      </c>
+      <c r="G35">
+        <v>1325555</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(A35:G35)</f>
+        <v>1112782.75</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1017905</v>
+      </c>
+      <c r="C36">
+        <v>634226</v>
+      </c>
+      <c r="E36">
+        <v>845955</v>
+      </c>
+      <c r="G36">
+        <v>650908</v>
+      </c>
+      <c r="H36">
+        <f>AVERAGE(A36:G36)</f>
+        <v>787248.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>884452</v>
+      </c>
+      <c r="C37">
+        <v>1215841</v>
+      </c>
+      <c r="E37">
+        <v>1173173</v>
+      </c>
+      <c r="G37">
+        <v>2466007</v>
+      </c>
+      <c r="H37">
+        <f>AVERAGE(A37:G37)</f>
+        <v>1434868.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1372713</v>
+      </c>
+      <c r="C38">
+        <v>1374958</v>
+      </c>
+      <c r="E38">
+        <v>1445535</v>
+      </c>
+      <c r="G38">
+        <v>1532793</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(A38:G38)</f>
+        <v>1431499.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3365857</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>1013735</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1231239</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>815801</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H43" si="0">AVERAGE(A39:G39)</f>
+        <v>1606658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2097085</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>2087782</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>2652072</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>3717457</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2638599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>793023</v>
+      </c>
+      <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="J15">
-        <v>238036</v>
-      </c>
-      <c r="K15">
-        <v>427308</v>
-      </c>
-      <c r="L15">
-        <v>996732</v>
-      </c>
-      <c r="M15">
-        <v>3592019</v>
+      <c r="C41">
+        <v>1024322</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>1016302</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>934176</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>941955.75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>8</v>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1006678</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>1016944</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>1151360</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>1147189</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1080542.75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>1444</v>
-      </c>
-      <c r="C18">
-        <v>1344</v>
-      </c>
-      <c r="D18">
-        <v>1360200</v>
-      </c>
-      <c r="I18">
-        <v>100</v>
-      </c>
-      <c r="J18">
-        <v>2646</v>
-      </c>
-      <c r="K18">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>200</v>
-      </c>
-      <c r="B19">
-        <v>3288</v>
-      </c>
-      <c r="C19">
-        <v>3088</v>
-      </c>
-      <c r="D19">
-        <v>1265884</v>
-      </c>
-      <c r="I19">
-        <v>200</v>
-      </c>
-      <c r="J19">
-        <v>10412</v>
-      </c>
-      <c r="K19">
-        <v>10220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>300</v>
-      </c>
-      <c r="B20">
-        <v>5276</v>
-      </c>
-      <c r="C20">
-        <v>4976</v>
-      </c>
-      <c r="D20">
-        <v>2355007</v>
-      </c>
-      <c r="I20">
-        <v>300</v>
-      </c>
-      <c r="J20">
-        <v>23523</v>
-      </c>
-      <c r="K20">
-        <v>23231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>400</v>
-      </c>
-      <c r="B21">
-        <v>7376</v>
-      </c>
-      <c r="C21">
-        <v>6976</v>
-      </c>
-      <c r="D21">
-        <v>693574</v>
-      </c>
-      <c r="I21">
-        <v>400</v>
-      </c>
-      <c r="J21">
-        <v>41521</v>
-      </c>
-      <c r="K21">
-        <v>41129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>468</v>
-      </c>
-      <c r="B22">
-        <v>8804</v>
-      </c>
-      <c r="C22">
-        <v>8336</v>
-      </c>
-      <c r="D22">
-        <v>2823451</v>
-      </c>
-      <c r="I22">
-        <v>468</v>
-      </c>
-      <c r="J22">
-        <v>58785</v>
-      </c>
-      <c r="K22">
-        <v>58325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27">
-        <v>1406075</v>
-      </c>
-      <c r="J27">
-        <v>438215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H28">
-        <v>200</v>
-      </c>
-      <c r="I28">
-        <v>2559358</v>
-      </c>
-      <c r="J28">
-        <v>396511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H29">
-        <v>300</v>
-      </c>
-      <c r="I29">
-        <v>1123769</v>
-      </c>
-      <c r="J29">
-        <v>1007639</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <v>400</v>
-      </c>
-      <c r="I30">
-        <v>1060892</v>
-      </c>
-      <c r="J30">
-        <v>2565453</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H31">
-        <v>468</v>
-      </c>
-      <c r="I31">
-        <v>2823451</v>
-      </c>
-      <c r="J31">
-        <v>3387599</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>992883</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>1153925</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>1026888</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>1054477</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1057043.25</v>
       </c>
     </row>
   </sheetData>
